--- a/config_10.12/permission_server_config.xlsx
+++ b/config_10.12/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5742" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="2193">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9858,10 +9858,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>不是捕鱼奥秘CPL渠道</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>不是冲金鸡CPL渠道</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -9871,6 +9867,88 @@
   </si>
   <si>
     <t>cjj_official</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（天天欢乐捕鱼和捕鱼奥秘官方渠道新玩家）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_cjj_cpl_task</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP1及以上用户</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是IOS用户</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yam_cpl</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡CPL渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_crary_rebate_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（老玩家显示）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_not_new_player_can_show</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是天天欢乐捕鱼CPL渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是捕鱼奥秘CPL渠道</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -9891,19 +9969,48 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>vip_level</t>
+    <t>是天天欢乐捕鱼CPL渠道</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>疯狂返利（天天欢乐捕鱼和捕鱼奥秘官方渠道新玩家）</t>
+    <t>VIP0用户</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_cjj_cpl_task</t>
+    <t>是捕鱼奥秘CPL渠道</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>永久</t>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jj_cpl</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP0用户</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼CPL渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼CPL渠道</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -9928,7 +10035,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>不是天天欢乐捕鱼CPL渠道</t>
+    <t>cjj_cpl</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -9936,69 +10043,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yam_cpl</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>是捕鱼奥秘CPL渠道</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP0用户</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jj_cpl</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡CPL渠道</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_crary_rebate_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>是新玩家</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利（老玩家显示）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_not_new_player_can_show</t>
+    <t>不是IOS用户</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -10883,7 +10928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q527"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D524" sqref="D524"/>
     </sheetView>
@@ -16090,10 +16135,10 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="118" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="B527" s="118" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="C527" s="1">
         <v>522</v>
@@ -30280,7 +30325,7 @@
         <v>1</v>
       </c>
       <c r="C421" s="122" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D421" s="119" t="s">
         <v>2148</v>
@@ -30312,10 +30357,10 @@
         <v>1</v>
       </c>
       <c r="C422" s="119" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="G422" s="7">
         <v>521</v>
@@ -30333,7 +30378,7 @@
         <v>1619452800</v>
       </c>
       <c r="L422" s="7" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
   </sheetData>
@@ -30346,13 +30391,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1148"/>
+  <dimension ref="A1:I1157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1136" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1152" sqref="B1152"/>
+      <selection pane="bottomRight" activeCell="E1142" sqref="E1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57228,7 +57273,7 @@
         <v>517</v>
       </c>
       <c r="C1128" s="122" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D1128" s="21">
         <v>1</v>
@@ -57240,7 +57285,7 @@
         <v>1</v>
       </c>
       <c r="G1128" s="122" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1129" spans="1:7">
@@ -57263,7 +57308,7 @@
         <v>1</v>
       </c>
       <c r="G1129" s="122" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1130" spans="1:7">
@@ -57297,7 +57342,7 @@
         <v>518</v>
       </c>
       <c r="C1131" s="122" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D1131" s="21">
         <v>1</v>
@@ -57309,7 +57354,7 @@
         <v>1</v>
       </c>
       <c r="G1131" s="122" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1132" spans="1:7">
@@ -57332,7 +57377,7 @@
         <v>1</v>
       </c>
       <c r="G1132" s="122" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1133" spans="1:7">
@@ -57366,7 +57411,7 @@
         <v>519</v>
       </c>
       <c r="C1134" s="122" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D1134" s="21">
         <v>1</v>
@@ -57378,7 +57423,7 @@
         <v>1</v>
       </c>
       <c r="G1134" s="122" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1135" spans="1:7">
@@ -57401,7 +57446,7 @@
         <v>1</v>
       </c>
       <c r="G1135" s="122" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1136" spans="1:7">
@@ -57424,7 +57469,7 @@
         <v>1</v>
       </c>
       <c r="G1136" s="122" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1137" spans="1:7">
@@ -57438,7 +57483,7 @@
         <v>1669</v>
       </c>
       <c r="D1137" s="21" t="s">
-        <v>2127</v>
+        <v>2060</v>
       </c>
       <c r="E1137" s="21">
         <v>2</v>
@@ -57447,7 +57492,7 @@
         <v>2</v>
       </c>
       <c r="G1137" s="122" t="s">
-        <v>2162</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1138" spans="1:7">
@@ -57461,7 +57506,7 @@
         <v>1669</v>
       </c>
       <c r="D1138" s="122" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E1138" s="21">
         <v>2</v>
@@ -57470,7 +57515,7 @@
         <v>3</v>
       </c>
       <c r="G1138" s="122" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1139" spans="1:7">
@@ -57484,7 +57529,7 @@
         <v>1669</v>
       </c>
       <c r="D1139" s="122" t="s">
-        <v>2166</v>
+        <v>2179</v>
       </c>
       <c r="E1139" s="21">
         <v>2</v>
@@ -57493,7 +57538,7 @@
         <v>4</v>
       </c>
       <c r="G1139" s="122" t="s">
-        <v>2158</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1140" spans="1:7">
@@ -57504,7 +57549,7 @@
         <v>520</v>
       </c>
       <c r="C1140" s="122" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="D1140" s="122">
         <v>0</v>
@@ -57516,7 +57561,7 @@
         <v>4</v>
       </c>
       <c r="G1140" s="122" t="s">
-        <v>2164</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -57527,10 +57572,10 @@
         <v>520</v>
       </c>
       <c r="C1141" s="122" t="s">
-        <v>2175</v>
+        <v>2061</v>
       </c>
       <c r="D1141" s="122" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E1141" s="21">
         <v>2</v>
@@ -57539,7 +57584,7 @@
         <v>5</v>
       </c>
       <c r="G1141" s="122" t="s">
-        <v>2177</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1142" spans="1:7">
@@ -57550,7 +57595,7 @@
         <v>520</v>
       </c>
       <c r="C1142" s="122" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="D1142" s="21">
         <v>0</v>
@@ -57562,7 +57607,7 @@
         <v>5</v>
       </c>
       <c r="G1142" s="122" t="s">
-        <v>2178</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -57573,10 +57618,10 @@
         <v>520</v>
       </c>
       <c r="C1143" s="122" t="s">
-        <v>2175</v>
+        <v>2061</v>
       </c>
       <c r="D1143" s="122" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="E1143" s="21">
         <v>2</v>
@@ -57585,7 +57630,7 @@
         <v>6</v>
       </c>
       <c r="G1143" s="122" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1144" spans="1:7">
@@ -57596,7 +57641,7 @@
         <v>520</v>
       </c>
       <c r="C1144" s="122" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="D1144" s="21">
         <v>0</v>
@@ -57608,7 +57653,7 @@
         <v>6</v>
       </c>
       <c r="G1144" s="122" t="s">
-        <v>2178</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1145" spans="1:7">
@@ -57616,22 +57661,22 @@
         <v>1144</v>
       </c>
       <c r="B1145" s="21">
-        <v>521</v>
-      </c>
-      <c r="C1145" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1145" s="121" t="s">
         <v>1669</v>
       </c>
-      <c r="D1145" s="3" t="s">
-        <v>1745</v>
+      <c r="D1145" s="122" t="s">
+        <v>2072</v>
       </c>
       <c r="E1145" s="21">
         <v>2</v>
       </c>
       <c r="F1145" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1145" s="3" t="s">
-        <v>1968</v>
+        <v>7</v>
+      </c>
+      <c r="G1145" s="122" t="s">
+        <v>2185</v>
       </c>
     </row>
     <row r="1146" spans="1:7">
@@ -57639,22 +57684,22 @@
         <v>1145</v>
       </c>
       <c r="B1146" s="21">
-        <v>521</v>
-      </c>
-      <c r="C1146" s="9" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D1146" s="9" t="s">
-        <v>1638</v>
+        <v>520</v>
+      </c>
+      <c r="C1146" s="122" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1146" s="21">
+        <v>1</v>
       </c>
       <c r="E1146" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1146" s="21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G1146" s="122" t="s">
-        <v>2182</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -57662,22 +57707,22 @@
         <v>1146</v>
       </c>
       <c r="B1147" s="21">
-        <v>522</v>
-      </c>
-      <c r="C1147" s="3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D1147" s="3" t="s">
-        <v>1745</v>
+        <v>520</v>
+      </c>
+      <c r="C1147" s="9" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1147" s="10" t="s">
+        <v>1935</v>
       </c>
       <c r="E1147" s="21">
         <v>2</v>
       </c>
       <c r="F1147" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1147" s="3" t="s">
-        <v>1968</v>
+        <v>7</v>
+      </c>
+      <c r="G1147" s="122" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="1148" spans="1:7">
@@ -57685,21 +57730,228 @@
         <v>1147</v>
       </c>
       <c r="B1148" s="21">
+        <v>520</v>
+      </c>
+      <c r="C1148" s="121" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1148" s="122" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E1148" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1148" s="21">
+        <v>8</v>
+      </c>
+      <c r="G1148" s="122" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7">
+      <c r="A1149" s="9">
+        <v>1148</v>
+      </c>
+      <c r="B1149" s="21">
+        <v>520</v>
+      </c>
+      <c r="C1149" s="122" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1149" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1149" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1149" s="21">
+        <v>8</v>
+      </c>
+      <c r="G1149" s="122" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7">
+      <c r="A1150" s="9">
+        <v>1149</v>
+      </c>
+      <c r="B1150" s="21">
+        <v>520</v>
+      </c>
+      <c r="C1150" s="9" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1150" s="10" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E1150" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1150" s="21">
+        <v>8</v>
+      </c>
+      <c r="G1150" s="122" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7">
+      <c r="A1151" s="9">
+        <v>1150</v>
+      </c>
+      <c r="B1151" s="21">
+        <v>520</v>
+      </c>
+      <c r="C1151" s="121" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1151" s="122" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E1151" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1151" s="21">
+        <v>9</v>
+      </c>
+      <c r="G1151" s="122" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7">
+      <c r="A1152" s="9">
+        <v>1151</v>
+      </c>
+      <c r="B1152" s="21">
+        <v>520</v>
+      </c>
+      <c r="C1152" s="122" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D1152" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1152" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1152" s="21">
+        <v>9</v>
+      </c>
+      <c r="G1152" s="122" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7">
+      <c r="A1153" s="9">
+        <v>1152</v>
+      </c>
+      <c r="B1153" s="21">
+        <v>520</v>
+      </c>
+      <c r="C1153" s="9" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1153" s="10" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E1153" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1153" s="21">
+        <v>9</v>
+      </c>
+      <c r="G1153" s="122" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7">
+      <c r="A1154" s="9">
+        <v>1153</v>
+      </c>
+      <c r="B1154" s="21">
+        <v>521</v>
+      </c>
+      <c r="C1154" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1154" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E1154" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1154" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1154" s="3" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7">
+      <c r="A1155" s="9">
+        <v>1154</v>
+      </c>
+      <c r="B1155" s="21">
+        <v>521</v>
+      </c>
+      <c r="C1155" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1155" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E1155" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1155" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1155" s="122" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7">
+      <c r="A1156" s="9">
+        <v>1155</v>
+      </c>
+      <c r="B1156" s="21">
         <v>522</v>
       </c>
-      <c r="C1148" s="9" t="s">
+      <c r="C1156" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1156" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E1156" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1156" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1156" s="3" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7">
+      <c r="A1157" s="9">
+        <v>1156</v>
+      </c>
+      <c r="B1157" s="21">
+        <v>522</v>
+      </c>
+      <c r="C1157" s="9" t="s">
         <v>1637</v>
       </c>
-      <c r="D1148" s="9" t="s">
+      <c r="D1157" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="E1148" s="21">
+      <c r="E1157" s="21">
         <v>5</v>
       </c>
-      <c r="F1148" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1148" s="21" t="s">
+      <c r="F1157" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1157" s="21" t="s">
         <v>1941</v>
       </c>
     </row>
